--- a/data/sector_correlations/2011_intra.xlsx
+++ b/data/sector_correlations/2011_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,341 +458,341 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics(12)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5768421771497836</v>
+        <v>0.5989653154570562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Construction Materials(8)</t>
+          <t>Air Freight &amp; Logistics(11)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5663544204918297</v>
+        <v>0.5775675828705409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(34)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.565205060646772</v>
+        <v>0.5751299603686909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(23)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5165489763517055</v>
+        <v>0.5690460143460049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5046759631775736</v>
+        <v>0.5675362280049581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(28)</t>
+          <t>Construction Materials(8)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4911955126833663</v>
+        <v>0.5663544204918297</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Marine(16)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4850391454644529</v>
+        <v>0.5441324810134711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machinery(93)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4830013394523354</v>
+        <v>0.5275944728785374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(23)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4787480918829788</v>
+        <v>0.5214815206989146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Multi-Utilities(19)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4665175705375</v>
+        <v>0.5123627667862571</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(95)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4597137023044923</v>
+        <v>0.5109642925283362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chemicals(55)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4540385170112262</v>
+        <v>0.5046759631775736</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(20)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4512324225865137</v>
+        <v>0.4909455662030818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Airlines(15)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4497058334281857</v>
+        <v>0.4782659817295227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wireless Telecommunication Services(14)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4456355275386176</v>
+        <v>0.4662222783206468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging(14)</t>
+          <t>Wireless Telecommunication Services(14)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4440806537845574</v>
+        <v>0.4456355275386176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leisure Products(12)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4323418281933476</v>
+        <v>0.4420316194123448</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Building Products(27)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4227804081759099</v>
+        <v>0.4331316156024389</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Insurance(80)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.420568201242529</v>
+        <v>0.4197610392852889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Electrical Equipment(31)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4167201610708456</v>
+        <v>0.4179694322295037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(128)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4029136617801329</v>
+        <v>0.4163578740925429</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Water Utilities(13)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3949080079817527</v>
+        <v>0.4142540919728485</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Capital Markets(87)</t>
+          <t>Leisure Products(11)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3922272681283366</v>
+        <v>0.4131002866899252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(48)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.389098646924734</v>
+        <v>0.4110709898800927</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Household Durables(43)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3799979642958881</v>
+        <v>0.4037955009463311</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gas Utilities(13)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3781854055598938</v>
+        <v>0.4036972876281053</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IT Services(58)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3761833171742393</v>
+        <v>0.3793475327116087</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Blank Check / SPAC(32)</t>
+          <t>Water Utilities(12)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3722325277281857</v>
+        <v>0.3783444804567622</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(75)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3647914190887007</v>
+        <v>0.3740882294784622</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Electric Utilities(29)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.359495903510865</v>
+        <v>0.3626800602595638</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(54)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3519083845136936</v>
+        <v>0.3451938496260053</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Professional Services(38)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3492598150483555</v>
+        <v>0.3416126992819677</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(43)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3437231280426996</v>
+        <v>0.3360127359773946</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(57)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3345812199483374</v>
+        <v>0.3341948423933782</v>
       </c>
     </row>
     <row r="37">
@@ -808,191 +808,161 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail(19)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3279107335619684</v>
+        <v>0.3327326980024479</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Software(70)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3269663481199141</v>
+        <v>0.3316468995720376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Banks(271)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3193767836554049</v>
+        <v>0.3270062579011052</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Beverages(22)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3128306035755384</v>
+        <v>0.3159174398305094</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Communications Equipment(50)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3127687528673325</v>
+        <v>0.3084588888265488</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Specialty Retail(63)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3120243755594241</v>
+        <v>0.3010316192346816</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services(18)</t>
+          <t>Diversified Consumer Services(17)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3074755998038921</v>
+        <v>0.2979870840024118</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Shell Companies(18)</t>
+          <t>Real Estate Management &amp; Development(22)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3048903249792332</v>
+        <v>0.2665444198014706</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(30)</t>
+          <t>Entertainment(22)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3028784503126893</v>
+        <v>0.2468887503039209</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Consumer Finance(23)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2905619448519195</v>
+        <v>0.2466866844775422</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(28)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2762358657904195</v>
+        <v>0.2287517233842288</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entertainment(26)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2749353811395696</v>
+        <v>0.2180506714605436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(21)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2438736211483114</v>
+        <v>0.1978768024882402</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(87)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2241490513750598</v>
+        <v>0.1785330825979096</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Media(47)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1884333660741182</v>
+        <v>0.1760245794419086</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Biotechnology(163)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.175948737680654</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Food Products(47)</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.1744775847337122</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Thrifts &amp; Mortgage Finance(52)</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.158286930523329</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals(56)</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.1468414346995309</v>
+        <v>0.1356876458472174</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_correlations/2011_intra.xlsx
+++ b/data/sector_correlations/2011_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,140 +828,150 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>No Sector(375)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3270062579011052</v>
+        <v>0.3274997119131837</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3159174398305094</v>
+        <v>0.3270062579011052</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3084588888265488</v>
+        <v>0.3159174398305094</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Beverages(21)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3010316192346816</v>
+        <v>0.3084588888265488</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services(17)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2979870840024118</v>
+        <v>0.3010316192346816</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(22)</t>
+          <t>Diversified Consumer Services(17)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2665444198014706</v>
+        <v>0.2979870840024118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Entertainment(22)</t>
+          <t>Real Estate Management &amp; Development(22)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2468887503039209</v>
+        <v>0.2665444198014706</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Entertainment(22)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2466866844775422</v>
+        <v>0.2468887503039209</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(20)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2287517233842288</v>
+        <v>0.2466866844775422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2180506714605436</v>
+        <v>0.2287517233842288</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1978768024882402</v>
+        <v>0.2180506714605436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1785330825979096</v>
+        <v>0.1978768024882402</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1760245794419086</v>
+        <v>0.1785330825979096</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>Biotechnology(126)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1760245794419086</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>Pharmaceuticals(48)</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B54" t="n">
         <v>0.1356876458472174</v>
       </c>
     </row>

--- a/data/sector_correlations/2011_intra.xlsx
+++ b/data/sector_correlations/2011_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,21 +468,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics(11)</t>
+          <t>Construction &amp; Engineering(21)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5775675828705409</v>
+        <v>0.5786025299199333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Air Freight &amp; Logistics(11)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5751299603686909</v>
+        <v>0.5775675828705409</v>
       </c>
     </row>
     <row r="6">
@@ -498,21 +498,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Construction Materials(8)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5675362280049581</v>
+        <v>0.5663544204918297</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Construction Materials(8)</t>
+          <t>Equity Real Estate Investment Trusts ...(98)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5663544204918297</v>
+        <v>0.5496987913628164</v>
       </c>
     </row>
     <row r="9">
@@ -538,151 +538,151 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Machinery(86)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5214815206989146</v>
+        <v>0.5235453611083485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5123627667862571</v>
+        <v>0.5046759631775736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5109642925283362</v>
+        <v>0.4909455662030818</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Building Products(24)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5046759631775736</v>
+        <v>0.4865975412683555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Multi-Utilities(18)</t>
+          <t>Chemicals(52)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4909455662030818</v>
+        <v>0.4779022354291935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Mortgage Real Estate Investment Trust...(16)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4782659817295227</v>
+        <v>0.4726946262294544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>Energy Equipment &amp; Services(38)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4662222783206468</v>
+        <v>0.4720797566113515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wireless Telecommunication Services(14)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4456355275386176</v>
+        <v>0.4662222783206468</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Airlines(14)</t>
+          <t>Wireless Telecommunication Services(14)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4420316194123448</v>
+        <v>0.4456355275386176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Insurance(75)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4331316156024389</v>
+        <v>0.4420316194123448</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gas Utilities(12)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4197610392852889</v>
+        <v>0.4331316156024389</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4179694322295037</v>
+        <v>0.4197610392852889</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4163578740925429</v>
+        <v>0.4142540919728485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Leisure Products(11)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4142540919728485</v>
+        <v>0.4131002866899252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Leisure Products(11)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(70)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4131002866899252</v>
+        <v>0.4113315235717009</v>
       </c>
     </row>
     <row r="26">
@@ -698,281 +698,321 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Metals &amp; Mining(106)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4037955009463311</v>
+        <v>0.4107914148021186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Capital Markets(76)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4036972876281053</v>
+        <v>0.404324614074526</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3793475327116087</v>
+        <v>0.4036972876281053</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Water Utilities(12)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(125)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3783444804567622</v>
+        <v>0.4020471117340391</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Technology Hardware, Storage &amp; Periph...(19)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3740882294784622</v>
+        <v>0.3981848729953394</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Electric Utilities(28)</t>
+          <t>Water Utilities(13)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3626800602595638</v>
+        <v>0.380142963547861</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3451938496260053</v>
+        <v>0.3793475327116087</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3416126992819677</v>
+        <v>0.3626800602595638</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Consumer Finance(15)</t>
+          <t>ETF(303)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3360127359773946</v>
+        <v>0.3522363555472797</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Health Care Providers &amp; Services(47)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3341948423933782</v>
+        <v>0.3459392702200678</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Food &amp; Staples Retailing(15)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3328140188231028</v>
+        <v>0.3451938496260053</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Banks(251)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3327326980024479</v>
+        <v>0.3362675392680736</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3316468995720376</v>
+        <v>0.3360127359773946</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>No Sector(375)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3274997119131837</v>
+        <v>0.3327326980024479</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Specialty Retail(59)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3270062579011052</v>
+        <v>0.3314211153553554</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Hotels, Restaurants &amp; Leisure(51)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3159174398305094</v>
+        <v>0.330966902539903</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Electronic Equipment, Instruments &amp; C...(78)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3084588888265488</v>
+        <v>0.3233749530919108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Beverages(21)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3010316192346816</v>
+        <v>0.3159174398305094</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Diversified Consumer Services(17)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2979870840024118</v>
+        <v>0.3084588888265488</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(22)</t>
+          <t>Software(70)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2665444198014706</v>
+        <v>0.3025465012445216</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Entertainment(22)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2468887503039209</v>
+        <v>0.3010316192346816</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Diversified Consumer Services(17)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2466866844775422</v>
+        <v>0.2979870840024118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(20)</t>
+          <t>Food &amp; Staples Retailing(16)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2287517233842288</v>
+        <v>0.2960646697541379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Real Estate Management &amp; Development(23)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2180506714605436</v>
+        <v>0.2727293729642281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Entertainment(22)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1978768024882402</v>
+        <v>0.2468887503039209</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1785330825979096</v>
+        <v>0.2466866844775422</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1760245794419086</v>
+        <v>0.2287517233842288</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Health Care Equipment &amp; Supplies(86)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1356876458472174</v>
+        <v>0.2240240279225028</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Food Products(46)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2119574383509444</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1785330825979096</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Biotechnology(128)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1757997545802315</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals(53)</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1446982411768738</v>
       </c>
     </row>
   </sheetData>
